--- a/2024_2025/BoxScores/January.xlsx
+++ b/2024_2025/BoxScores/January.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\BoxScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB32E33-780B-4D4B-B1D6-4D5705624EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45AD84E-C4C2-49E4-AC3B-6A2F9DA78448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Teams" sheetId="2" r:id="rId2"/>
     <sheet name="Scores Template" sheetId="3" r:id="rId3"/>
     <sheet name="Offense (1-1-25)" sheetId="5" r:id="rId4"/>
-    <sheet name="Goalies (1-1-25)" sheetId="4" r:id="rId5"/>
+    <sheet name="Rosters (Offense - 24)" sheetId="8" r:id="rId5"/>
+    <sheet name="Goalies (1-1-25)" sheetId="4" r:id="rId6"/>
+    <sheet name="Rosters (Goalies - 3)" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="895">
   <si>
     <t>Winnipeg Jets</t>
   </si>
@@ -271,6 +273,2460 @@
   </si>
   <si>
     <t>January 1st 2025</t>
+  </si>
+  <si>
+    <t>Ilya Samsanov</t>
+  </si>
+  <si>
+    <t>Thatcher Demko</t>
+  </si>
+  <si>
+    <t>Eric Comrie</t>
+  </si>
+  <si>
+    <t>Logan Thompson</t>
+  </si>
+  <si>
+    <t>Akira Schmid</t>
+  </si>
+  <si>
+    <t>Kevin Lankinen</t>
+  </si>
+  <si>
+    <t>Connor Hellebuyck</t>
+  </si>
+  <si>
+    <t>Charlie Lindgren</t>
+  </si>
+  <si>
+    <t>Adin Hill</t>
+  </si>
+  <si>
+    <t>Arturs Silovs</t>
+  </si>
+  <si>
+    <t>Pos.</t>
+  </si>
+  <si>
+    <t>Tristan Jarry</t>
+  </si>
+  <si>
+    <t>Karel Vejmelka</t>
+  </si>
+  <si>
+    <t>Joseph Woll</t>
+  </si>
+  <si>
+    <t>Jonas Johansson</t>
+  </si>
+  <si>
+    <t>Jordan Binnington</t>
+  </si>
+  <si>
+    <t>Philipp Grubauer</t>
+  </si>
+  <si>
+    <t>Vitek Vanacek</t>
+  </si>
+  <si>
+    <t>Joel Blomqvist</t>
+  </si>
+  <si>
+    <t>Connor Ingram</t>
+  </si>
+  <si>
+    <t>Anthony Stolarz</t>
+  </si>
+  <si>
+    <t>Andrei Vasilevskiy</t>
+  </si>
+  <si>
+    <t>Joel Hofer</t>
+  </si>
+  <si>
+    <t>Joey Daccord</t>
+  </si>
+  <si>
+    <t>Alexander Georgiev</t>
+  </si>
+  <si>
+    <t>Alex Nedeljkovic</t>
+  </si>
+  <si>
+    <t>Samuel Ersson</t>
+  </si>
+  <si>
+    <t>Mads Sogaard</t>
+  </si>
+  <si>
+    <t>Ivan Fedotov</t>
+  </si>
+  <si>
+    <t>Linus Ullmark</t>
+  </si>
+  <si>
+    <t>Jonathan Quick</t>
+  </si>
+  <si>
+    <t>Semyon Varlamov</t>
+  </si>
+  <si>
+    <t>Jake Allen</t>
+  </si>
+  <si>
+    <t>Juuse Saros</t>
+  </si>
+  <si>
+    <t>Sam Montembeault</t>
+  </si>
+  <si>
+    <t>Alexei Kolosov</t>
+  </si>
+  <si>
+    <t>Anton Forsberg</t>
+  </si>
+  <si>
+    <t>Igor Shesterkin</t>
+  </si>
+  <si>
+    <t>Ilya Sorokin</t>
+  </si>
+  <si>
+    <t>Jacob Markstrom</t>
+  </si>
+  <si>
+    <t>Justus Annunen</t>
+  </si>
+  <si>
+    <t>Cayden Primeau</t>
+  </si>
+  <si>
+    <t>Troy Grosenick</t>
+  </si>
+  <si>
+    <t>Ville Husso</t>
+  </si>
+  <si>
+    <t>Jet Greaves</t>
+  </si>
+  <si>
+    <t>Marc-Andre Fleury</t>
+  </si>
+  <si>
+    <t>David Rittich</t>
+  </si>
+  <si>
+    <t>Spencer Knight</t>
+  </si>
+  <si>
+    <t>Stuart Skinner</t>
+  </si>
+  <si>
+    <t>Cam Talbot</t>
+  </si>
+  <si>
+    <t>Jake Oettinger</t>
+  </si>
+  <si>
+    <t>Elvis Merzlikins</t>
+  </si>
+  <si>
+    <t>Filip Gustavsson</t>
+  </si>
+  <si>
+    <t>Darcy Kuemper</t>
+  </si>
+  <si>
+    <t>Sergei Bobrovsky</t>
+  </si>
+  <si>
+    <t>Calvin Pickard</t>
+  </si>
+  <si>
+    <t>Alex Lyon</t>
+  </si>
+  <si>
+    <t>Casey DeSmith</t>
+  </si>
+  <si>
+    <t>Daniil Tarasov</t>
+  </si>
+  <si>
+    <t>Trent Miner</t>
+  </si>
+  <si>
+    <t>Petr Mrazek</t>
+  </si>
+  <si>
+    <t>Spencer Martin</t>
+  </si>
+  <si>
+    <t>Lukas Dostal</t>
+  </si>
+  <si>
+    <t>Scott Wedgewood</t>
+  </si>
+  <si>
+    <t>Drew Commesso</t>
+  </si>
+  <si>
+    <t>Pyotr Kochetkov</t>
+  </si>
+  <si>
+    <t>Dustin Wolf</t>
+  </si>
+  <si>
+    <t>Ukko-Pekka Luukkonen</t>
+  </si>
+  <si>
+    <t>Joonas Korpisalo</t>
+  </si>
+  <si>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Mackenzie Blackwood</t>
+  </si>
+  <si>
+    <t>Arvid Soderblom</t>
+  </si>
+  <si>
+    <t>Frederik Andersen</t>
+  </si>
+  <si>
+    <t>Dan Vladar</t>
+  </si>
+  <si>
+    <t>Devon Levi</t>
+  </si>
+  <si>
+    <t>Jeremy Swayman</t>
+  </si>
+  <si>
+    <t>James Reimer</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Zach Whitecloud</t>
+  </si>
+  <si>
+    <t>Vincent Desharnais</t>
+  </si>
+  <si>
+    <t>Trevor van Riemsdyk</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>William Karlsson</t>
+  </si>
+  <si>
+    <t>Tyler Myers</t>
+  </si>
+  <si>
+    <t>Vladislav Namestnikov</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Tom Wilson</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Teddy Blueger</t>
+  </si>
+  <si>
+    <t>Ville Heinola</t>
+  </si>
+  <si>
+    <t>Taylor Raddysh</t>
+  </si>
+  <si>
+    <t>Thomas Hertl</t>
+  </si>
+  <si>
+    <t>Quinn Hughes</t>
+  </si>
+  <si>
+    <t>Rasmus Kupari</t>
+  </si>
+  <si>
+    <t>Rasmus Sandin</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>Tanner Pearson</t>
+  </si>
+  <si>
+    <t>Pius Suter</t>
+  </si>
+  <si>
+    <t>Nino Niederreiter</t>
+  </si>
+  <si>
+    <t>Pierre-Luc Dubois</t>
+  </si>
+  <si>
+    <t>Shea Theodore</t>
+  </si>
+  <si>
+    <t>Phillip Di Giuseppe</t>
+  </si>
+  <si>
+    <t>Nikolaj Ehlers</t>
+  </si>
+  <si>
+    <t>Nicklas Backstrom</t>
+  </si>
+  <si>
+    <t>Robert Hagg</t>
+  </si>
+  <si>
+    <t>Noah Juulsen</t>
+  </si>
+  <si>
+    <t>Nikita Chibrikov</t>
+  </si>
+  <si>
+    <t>Nic Dowd</t>
+  </si>
+  <si>
+    <t>Pavel Dorofeyev</t>
+  </si>
+  <si>
+    <t>Nils Hoglander</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
+    <t>Michael Sgarbossa</t>
+  </si>
+  <si>
+    <t>Noah Hanifin</t>
+  </si>
+  <si>
+    <t>Max Sasson</t>
+  </si>
+  <si>
+    <t>Morgan Barron</t>
+  </si>
+  <si>
+    <t>Matt Roy</t>
+  </si>
+  <si>
+    <t>Nicolas Roy</t>
+  </si>
+  <si>
+    <t>Mark Friedman</t>
+  </si>
+  <si>
+    <t>Mason Appleton</t>
+  </si>
+  <si>
+    <t>Martin Fehervary</t>
+  </si>
+  <si>
+    <t>Nicolas Hague</t>
+  </si>
+  <si>
+    <t>Linus Karlsson</t>
+  </si>
+  <si>
+    <t>Mark Scheifele</t>
+  </si>
+  <si>
+    <t>Lars Eller</t>
+  </si>
+  <si>
+    <t>Mason Morelli</t>
+  </si>
+  <si>
+    <t>Kiefer Sherwood</t>
+  </si>
+  <si>
+    <t>Logan Stanley</t>
+  </si>
+  <si>
+    <t>John Carlson</t>
+  </si>
+  <si>
+    <t>Mark Stone</t>
+  </si>
+  <si>
+    <t>Jake DeBrusk</t>
+  </si>
+  <si>
+    <t>Kyle Connor</t>
+  </si>
+  <si>
+    <t>Jakub Vrana</t>
+  </si>
+  <si>
+    <t>Keegan Kolesar</t>
+  </si>
+  <si>
+    <t>J.T. Miller</t>
+  </si>
+  <si>
+    <t>Josh Morrissey</t>
+  </si>
+  <si>
+    <t>Jakob Chychrun</t>
+  </si>
+  <si>
+    <t>Kaedan Korczak</t>
+  </si>
+  <si>
+    <t>Filip Hronek</t>
+  </si>
+  <si>
+    <t>Haydn Fleury</t>
+  </si>
+  <si>
+    <t>Ivan Miroshnichenko</t>
+  </si>
+  <si>
+    <t>Jonas Rondbjerg</t>
+  </si>
+  <si>
+    <t>Erik Brannstrom</t>
+  </si>
+  <si>
+    <t>Gabriel Vilardi</t>
+  </si>
+  <si>
+    <t>Hendrix Lapierre</t>
+  </si>
+  <si>
+    <t>Jack Eichel</t>
+  </si>
+  <si>
+    <t>Elias Pettersson</t>
+  </si>
+  <si>
+    <t>Dylan DeMelo</t>
+  </si>
+  <si>
+    <t>Dylan Strome</t>
+  </si>
+  <si>
+    <t>Ivan Barbashev</t>
+  </si>
+  <si>
+    <t>Derek Forbort</t>
+  </si>
+  <si>
+    <t>Dylan Coghlan</t>
+  </si>
+  <si>
+    <t>Dylan McIlrath</t>
+  </si>
+  <si>
+    <t>Cole Schwindt</t>
+  </si>
+  <si>
+    <t>Danton Heinen</t>
+  </si>
+  <si>
+    <t>David Gustafsson</t>
+  </si>
+  <si>
+    <t>Connor McMichael</t>
+  </si>
+  <si>
+    <t>Brett Howden</t>
+  </si>
+  <si>
+    <t>Daniel Sprong</t>
+  </si>
+  <si>
+    <t>Colin Miller</t>
+  </si>
+  <si>
+    <t>Brandon Duhaime</t>
+  </si>
+  <si>
+    <t>Brendan Brisson</t>
+  </si>
+  <si>
+    <t>Dakota Joshua</t>
+  </si>
+  <si>
+    <t>Cole Perfetti</t>
+  </si>
+  <si>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
+    <t>Brayden McNabb</t>
+  </si>
+  <si>
+    <t>Conor Garland</t>
+  </si>
+  <si>
+    <t>Brad Lambert</t>
+  </si>
+  <si>
+    <t>Aliaksei Protas</t>
+  </si>
+  <si>
+    <t>Ben Hutton</t>
+  </si>
+  <si>
+    <t>Carson Soucy</t>
+  </si>
+  <si>
+    <t>Alex Iafallo</t>
+  </si>
+  <si>
+    <t>Alexander Alexeyev</t>
+  </si>
+  <si>
+    <t>Alexander Holtz</t>
+  </si>
+  <si>
+    <t>Brock Boeser</t>
+  </si>
+  <si>
+    <t>Adam Lowry</t>
+  </si>
+  <si>
+    <t>Alex Ovechkin</t>
+  </si>
+  <si>
+    <t>Alex Pietrangelo</t>
+  </si>
+  <si>
+    <t>Arshdeep Bains</t>
+  </si>
+  <si>
+    <t>Zemgus Girgensons</t>
+  </si>
+  <si>
+    <t>Zack Bolduc</t>
+  </si>
+  <si>
+    <t>William Eklund</t>
+  </si>
+  <si>
+    <t>Vladislav Kolyachonok</t>
+  </si>
+  <si>
+    <t>William Nylander</t>
+  </si>
+  <si>
+    <t>Victor Hedman</t>
+  </si>
+  <si>
+    <t>Tyler Tucker</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Robert Bortuzzo</t>
+  </si>
+  <si>
+    <t>Steven Lorentz</t>
+  </si>
+  <si>
+    <t>Scott Perunovich</t>
+  </si>
+  <si>
+    <t>Yanni Gourde</t>
+  </si>
+  <si>
+    <t>Tyler Toffoli</t>
+  </si>
+  <si>
+    <t>Sidney Crosby</t>
+  </si>
+  <si>
+    <t>Olli Maatta</t>
+  </si>
+  <si>
+    <t>Simon Benoit</t>
+  </si>
+  <si>
+    <t>Steven Santini</t>
+  </si>
+  <si>
+    <t>Ryan Suter</t>
+  </si>
+  <si>
+    <t>Vince Dunn</t>
+  </si>
+  <si>
+    <t>Ty Dellandrea</t>
+  </si>
+  <si>
+    <t>Ryan Shea</t>
+  </si>
+  <si>
+    <t>Nick Schmaltz</t>
+  </si>
+  <si>
+    <t>Ryan Reaves</t>
+  </si>
+  <si>
+    <t>Ryan McDonagh</t>
+  </si>
+  <si>
+    <t>Robert Thomas</t>
+  </si>
+  <si>
+    <t>Tye Kartye</t>
+  </si>
+  <si>
+    <t>Timothy Lilegren</t>
+  </si>
+  <si>
+    <t>Ryan Graves</t>
+  </si>
+  <si>
+    <t>Nick Bjugstad</t>
+  </si>
+  <si>
+    <t>Pontus Holmberg</t>
+  </si>
+  <si>
+    <t>Nikita Kucherov</t>
+  </si>
+  <si>
+    <t>Radek Faksa</t>
+  </si>
+  <si>
+    <t>Shane Wright</t>
+  </si>
+  <si>
+    <t>Shakir Mukhamadullin</t>
+  </si>
+  <si>
+    <t>Rickard Rakell</t>
+  </si>
+  <si>
+    <t>Mikhail Sergachev</t>
+  </si>
+  <si>
+    <t>Philippe Myers</t>
+  </si>
+  <si>
+    <t>Nick Perbix</t>
+  </si>
+  <si>
+    <t>Philip Broberg</t>
+  </si>
+  <si>
+    <t>Ryker Evans</t>
+  </si>
+  <si>
+    <t>Nikolai Kovalenko</t>
+  </si>
+  <si>
+    <t>Philip Tomasino</t>
+  </si>
+  <si>
+    <t>Michael Kesselring</t>
+  </si>
+  <si>
+    <t>Oliver Ekman-Larsson</t>
+  </si>
+  <si>
+    <t>Nicholas Paul</t>
+  </si>
+  <si>
+    <t>Pavel Buchnevich</t>
+  </si>
+  <si>
+    <t>Ryan Winterton</t>
+  </si>
+  <si>
+    <t>Nico Sturm</t>
+  </si>
+  <si>
+    <t>Pierre-Olivier Joseph</t>
+  </si>
+  <si>
+    <t>Michael Carcone</t>
+  </si>
+  <si>
+    <t>Nikita Grebenkin</t>
+  </si>
+  <si>
+    <t>Mitchell Chaffee</t>
+  </si>
+  <si>
+    <t>Oskar Sundqvist</t>
+  </si>
+  <si>
+    <t>Oliver Bjorkstrand</t>
+  </si>
+  <si>
+    <t>Mikael Granlund</t>
+  </si>
+  <si>
+    <t>Noel Acciari</t>
+  </si>
+  <si>
+    <t>Maveric Lamoureux</t>
+  </si>
+  <si>
+    <t>Nicholas Robertson</t>
+  </si>
+  <si>
+    <t>Michael Eyssimont</t>
+  </si>
+  <si>
+    <t>Nick Leddy</t>
+  </si>
+  <si>
+    <t>Mitchell Stephens</t>
+  </si>
+  <si>
+    <t>Mario Ferraro</t>
+  </si>
+  <si>
+    <t>Nate Clurman</t>
+  </si>
+  <si>
+    <t>Matias Maccelli</t>
+  </si>
+  <si>
+    <t>Morgan Rielly</t>
+  </si>
+  <si>
+    <t>Luke Glendening</t>
+  </si>
+  <si>
+    <t>Nathan Walker</t>
+  </si>
+  <si>
+    <t>Matty Beniers</t>
+  </si>
+  <si>
+    <t>Macklin Celebrini</t>
+  </si>
+  <si>
+    <t>Michael Bunting</t>
+  </si>
+  <si>
+    <t>Logan Cooley</t>
+  </si>
+  <si>
+    <t>Mitch Marner</t>
+  </si>
+  <si>
+    <t>Janis Moser</t>
+  </si>
+  <si>
+    <t>Matthew Kessel</t>
+  </si>
+  <si>
+    <t>Kaapo Kakko</t>
+  </si>
+  <si>
+    <t>Luke Kunin</t>
+  </si>
+  <si>
+    <t>Matt Nieto</t>
+  </si>
+  <si>
+    <t>Liam O'Brien</t>
+  </si>
+  <si>
+    <t>Max Pacioretty</t>
+  </si>
+  <si>
+    <t>Jake Guentzel</t>
+  </si>
+  <si>
+    <t>Mathieu Joseph</t>
+  </si>
+  <si>
+    <t>Josh Mahura</t>
+  </si>
+  <si>
+    <t>Logan Couture</t>
+  </si>
+  <si>
+    <t>Matt Grzelcyk</t>
+  </si>
+  <si>
+    <t>Lawson Crouse</t>
+  </si>
+  <si>
+    <t>Max Domi</t>
+  </si>
+  <si>
+    <t>Gage Goncalves</t>
+  </si>
+  <si>
+    <t>Justin Faulk</t>
+  </si>
+  <si>
+    <t>Jared McCann</t>
+  </si>
+  <si>
+    <t>Klim Kostin</t>
+  </si>
+  <si>
+    <t>Marcus Pettersson</t>
+  </si>
+  <si>
+    <t>Kevin Stenlund</t>
+  </si>
+  <si>
+    <t>Matthew Knies</t>
+  </si>
+  <si>
+    <t>Erik Cernak</t>
+  </si>
+  <si>
+    <t>Jordan Kyrou</t>
+  </si>
+  <si>
+    <t>Jamie Oleksiak</t>
+  </si>
+  <si>
+    <t>Jan Rutta</t>
+  </si>
+  <si>
+    <t>Kailer Yamamoto</t>
+  </si>
+  <si>
+    <t>John Tavares</t>
+  </si>
+  <si>
+    <t>Emil Lilleberg</t>
+  </si>
+  <si>
+    <t>Jake Neighbours</t>
+  </si>
+  <si>
+    <t>Jaden Schwartz</t>
+  </si>
+  <si>
+    <t>Jake Walman</t>
+  </si>
+  <si>
+    <t>Kevin Hayes</t>
+  </si>
+  <si>
+    <t>Juuso Valimaki</t>
+  </si>
+  <si>
+    <t>Jake McCabe</t>
+  </si>
+  <si>
+    <t>Declan Carlile</t>
+  </si>
+  <si>
+    <t>Dylan Holloway</t>
+  </si>
+  <si>
+    <t>Eeli Tolvanen</t>
+  </si>
+  <si>
+    <t>Jack Thompson</t>
+  </si>
+  <si>
+    <t>Jack St. Ivany</t>
+  </si>
+  <si>
+    <t>Jack McBain</t>
+  </si>
+  <si>
+    <t>David Kampf</t>
+  </si>
+  <si>
+    <t>Darren Raddysh</t>
+  </si>
+  <si>
+    <t>Corey Schueneman</t>
+  </si>
+  <si>
+    <t>Henry Thrun</t>
+  </si>
+  <si>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
+    <t>Ian Cole</t>
+  </si>
+  <si>
+    <t>Conor Timmins</t>
+  </si>
+  <si>
+    <t>Conor Geekie</t>
+  </si>
+  <si>
+    <t>Colton Parayko</t>
+  </si>
+  <si>
+    <t>Chandler Stephenson</t>
+  </si>
+  <si>
+    <t>Fabian Zetterlund</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Dylan Guenther</t>
+  </si>
+  <si>
+    <t>Connor Dewar</t>
+  </si>
+  <si>
+    <t>Cameron Atkinson</t>
+  </si>
+  <si>
+    <t>Cam Fowler</t>
+  </si>
+  <si>
+    <t>Brandon Tanev</t>
+  </si>
+  <si>
+    <t>Ethan Cardwell</t>
+  </si>
+  <si>
+    <t>Drew O'Connor</t>
+  </si>
+  <si>
+    <t>Dakota Mermis</t>
+  </si>
+  <si>
+    <t>Chris Tanev</t>
+  </si>
+  <si>
+    <t>Brayden Point</t>
+  </si>
+  <si>
+    <t>Brayden Schenn</t>
+  </si>
+  <si>
+    <t>Brandon Montour</t>
+  </si>
+  <si>
+    <t>Cody Ceci</t>
+  </si>
+  <si>
+    <t>Cody Glass</t>
+  </si>
+  <si>
+    <t>Clayton Keller</t>
+  </si>
+  <si>
+    <t>Bobby McMann</t>
+  </si>
+  <si>
+    <t>Brandon Hagel</t>
+  </si>
+  <si>
+    <t>Brandan Saad</t>
+  </si>
+  <si>
+    <t>Ben Meyers</t>
+  </si>
+  <si>
+    <t>Carl Grundstrom</t>
+  </si>
+  <si>
+    <t>Bryan Rust</t>
+  </si>
+  <si>
+    <t>Barrett Hayton</t>
+  </si>
+  <si>
+    <t>Auston Matthews</t>
+  </si>
+  <si>
+    <t>Austin Watson</t>
+  </si>
+  <si>
+    <t>Alexey Toropchenko</t>
+  </si>
+  <si>
+    <t>Andre Burakovsky</t>
+  </si>
+  <si>
+    <t>Barclay Goodrow</t>
+  </si>
+  <si>
+    <t>Blake Lizotte</t>
+  </si>
+  <si>
+    <t>Alex Kerfoot</t>
+  </si>
+  <si>
+    <t>Alexander Nylander</t>
+  </si>
+  <si>
+    <t>Anthony Cirelli</t>
+  </si>
+  <si>
+    <t>Alexandre Texier</t>
+  </si>
+  <si>
+    <t>Adam Larsson</t>
+  </si>
+  <si>
+    <t>Alex Wennberg</t>
+  </si>
+  <si>
+    <t>Anthony Beauvillier</t>
+  </si>
+  <si>
+    <t>Tyson Foerster</t>
+  </si>
+  <si>
+    <t>Simon Holmstrom</t>
+  </si>
+  <si>
+    <t>Zachary L'Heureux</t>
+  </si>
+  <si>
+    <t>Tyler Wotherspoon</t>
+  </si>
+  <si>
+    <t>Travis Sanheim</t>
+  </si>
+  <si>
+    <t>Zack Ostapchuk</t>
+  </si>
+  <si>
+    <t>Zac Jones</t>
+  </si>
+  <si>
+    <t>Scott Mayfield</t>
+  </si>
+  <si>
+    <t>Vinnie Hinostroza</t>
+  </si>
+  <si>
+    <t>Patrik Laine</t>
+  </si>
+  <si>
+    <t>Travis Konecny</t>
+  </si>
+  <si>
+    <t>Zack MacEwen</t>
+  </si>
+  <si>
+    <t>Will Cuylle</t>
+  </si>
+  <si>
+    <t>Ryan Pulock</t>
+  </si>
+  <si>
+    <t>Topias Vilen</t>
+  </si>
+  <si>
+    <t>Tommy Novak</t>
+  </si>
+  <si>
+    <t>Nick Suzuki</t>
+  </si>
+  <si>
+    <t>Spencer Gill</t>
+  </si>
+  <si>
+    <t>Tyler Kleven</t>
+  </si>
+  <si>
+    <t>Will Borgen</t>
+  </si>
+  <si>
+    <t>Pierre Engvall</t>
+  </si>
+  <si>
+    <t>Tomas Tatar</t>
+  </si>
+  <si>
+    <t>Tanner Molendyk</t>
+  </si>
+  <si>
+    <t>Mike Matheson</t>
+  </si>
+  <si>
+    <t>Sean Couturier</t>
+  </si>
+  <si>
+    <t>Travis Hamonic</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>Oliver Wahlstrom</t>
+  </si>
+  <si>
+    <t>Timo Meier</t>
+  </si>
+  <si>
+    <t>Steven Stamkos</t>
+  </si>
+  <si>
+    <t>Michael Pezzetta</t>
+  </si>
+  <si>
+    <t>Scott Laughton</t>
+  </si>
+  <si>
+    <t>Tim Stutzle</t>
+  </si>
+  <si>
+    <t>Victor Mancini</t>
+  </si>
+  <si>
+    <t>Noah Dobson</t>
+  </si>
+  <si>
+    <t>Stefan Noesen</t>
+  </si>
+  <si>
+    <t>Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t>Logan Mailloux</t>
+  </si>
+  <si>
+    <t>Ryan Poehling</t>
+  </si>
+  <si>
+    <t>Thomas Chabot</t>
+  </si>
+  <si>
+    <t>Urho Vaakanainen</t>
+  </si>
+  <si>
+    <t>Maxim Tsyplakov</t>
+  </si>
+  <si>
+    <t>Paul Cotter</t>
+  </si>
+  <si>
+    <t>Roman Josi</t>
+  </si>
+  <si>
+    <t>Lane Hutson</t>
+  </si>
+  <si>
+    <t>Rasmus Ristolainen</t>
+  </si>
+  <si>
+    <t>Shane Pinto</t>
+  </si>
+  <si>
+    <t>Sam Carrick</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
+  </si>
+  <si>
+    <t>Ondrej Palat</t>
+  </si>
+  <si>
+    <t>Kirby Dach</t>
+  </si>
+  <si>
+    <t>Owen Tippett</t>
+  </si>
+  <si>
+    <t>Ridly Greig</t>
+  </si>
+  <si>
+    <t>Ryan Lindgren</t>
+  </si>
+  <si>
+    <t>Matt Martin</t>
+  </si>
+  <si>
+    <t>Nico Hischier</t>
+  </si>
+  <si>
+    <t>Nick Blankenburg</t>
+  </si>
+  <si>
+    <t>Kaiden Guhle</t>
+  </si>
+  <si>
+    <t>Olle Lycksell</t>
+  </si>
+  <si>
+    <t>Noah Gregor</t>
+  </si>
+  <si>
+    <t>Reilly Smith</t>
+  </si>
+  <si>
+    <t>Liam Foudy</t>
+  </si>
+  <si>
+    <t>Nathan Bastian</t>
+  </si>
+  <si>
+    <t>Michael McCarron</t>
+  </si>
+  <si>
+    <t>Juraj Slafkovsky</t>
+  </si>
+  <si>
+    <t>Noah Cates</t>
+  </si>
+  <si>
+    <t>Nikolas Matinpalo</t>
+  </si>
+  <si>
+    <t>Mika Zibanejad</t>
+  </si>
+  <si>
+    <t>Kyle Palmieri</t>
+  </si>
+  <si>
+    <t>Luke Hughes</t>
+  </si>
+  <si>
+    <t>Mark Jankowski</t>
+  </si>
+  <si>
+    <t>Joshua Roy</t>
+  </si>
+  <si>
+    <t>Nicolas Deslauriers</t>
+  </si>
+  <si>
+    <t>Nick Jensen</t>
+  </si>
+  <si>
+    <t>Matt Rempe</t>
+  </si>
+  <si>
+    <t>Kyle MacLean</t>
+  </si>
+  <si>
+    <t>Kurtis MacDermid</t>
+  </si>
+  <si>
+    <t>Marc Del Gaizo</t>
+  </si>
+  <si>
+    <t>Josh Anderson</t>
+  </si>
+  <si>
+    <t>Nick Seeler</t>
+  </si>
+  <si>
+    <t>Nick Cousins</t>
+  </si>
+  <si>
+    <t>K'Andre Miller</t>
+  </si>
+  <si>
+    <t>Julien Gaither</t>
+  </si>
+  <si>
+    <t>Justin Dowling</t>
+  </si>
+  <si>
+    <t>Luke Schenn</t>
+  </si>
+  <si>
+    <t>Joel Armia</t>
+  </si>
+  <si>
+    <t>Morgan Frost</t>
+  </si>
+  <si>
+    <t>Michael Amadio</t>
+  </si>
+  <si>
+    <t>Jonny Brodzinski</t>
+  </si>
+  <si>
+    <t>Jean-Gabriel Pageau</t>
+  </si>
+  <si>
+    <t>Jonas Siegenthaler</t>
+  </si>
+  <si>
+    <t>Luke Evangelista</t>
+  </si>
+  <si>
+    <t>Jayden Struble</t>
+  </si>
+  <si>
+    <t>Matvei Michkov</t>
+  </si>
+  <si>
+    <t>Matthew Highmore</t>
+  </si>
+  <si>
+    <t>Jimmy Vesey</t>
+  </si>
+  <si>
+    <t>Isaiah George</t>
+  </si>
+  <si>
+    <t>Johnathan Kovacevic</t>
+  </si>
+  <si>
+    <t>Justin Barron</t>
+  </si>
+  <si>
+    <t>Jake Evans</t>
+  </si>
+  <si>
+    <t>Joel Farabee</t>
+  </si>
+  <si>
+    <t>Josh Norris</t>
+  </si>
+  <si>
+    <t>Filip Chytil</t>
+  </si>
+  <si>
+    <t>Hudson Fasching</t>
+  </si>
+  <si>
+    <t>Jesper Bratt</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
+    <t>Gustav Lindstrom</t>
+  </si>
+  <si>
+    <t>Jamie Drysdale</t>
+  </si>
+  <si>
+    <t>Jake Sanderson</t>
+  </si>
+  <si>
+    <t>Chris Kreider</t>
+  </si>
+  <si>
+    <t>Dennis Cholowski</t>
+  </si>
+  <si>
+    <t>Jack Hughes</t>
+  </si>
+  <si>
+    <t>Jeremy Lauzon</t>
+  </si>
+  <si>
+    <t>Emil Heineman</t>
+  </si>
+  <si>
+    <t>Jacob Gaucher</t>
+  </si>
+  <si>
+    <t>Jacob Bernard-Docker</t>
+  </si>
+  <si>
+    <t>Chad Ruhwedel</t>
+  </si>
+  <si>
+    <t>Casey Cizikas</t>
+  </si>
+  <si>
+    <t>Erik Haula</t>
+  </si>
+  <si>
+    <t>Gustav Nyquist</t>
+  </si>
+  <si>
+    <t>David Savard</t>
+  </si>
+  <si>
+    <t>Garnet Hathaway</t>
+  </si>
+  <si>
+    <t>Drake Batherson</t>
+  </si>
+  <si>
+    <t>Brett Berard</t>
+  </si>
+  <si>
+    <t>Brock Nelson</t>
+  </si>
+  <si>
+    <t>Dougie Hamilton</t>
+  </si>
+  <si>
+    <t>Filip Forsberg</t>
+  </si>
+  <si>
+    <t>Cole Caufield</t>
+  </si>
+  <si>
+    <t>Erik Johnson</t>
+  </si>
+  <si>
+    <t>Cole Reinhardt</t>
+  </si>
+  <si>
+    <t>Braden Schneider</t>
+  </si>
+  <si>
+    <t>Bo Horvat</t>
+  </si>
+  <si>
+    <t>Dawson Mercer</t>
+  </si>
+  <si>
+    <t>Dante Fabbro</t>
+  </si>
+  <si>
+    <t>Christian Dvorak</t>
+  </si>
+  <si>
+    <t>Egor Zamula</t>
+  </si>
+  <si>
+    <t>Claude Giroux</t>
+  </si>
+  <si>
+    <t>Artemi Panarin</t>
+  </si>
+  <si>
+    <t>Anthony Duclair</t>
+  </si>
+  <si>
+    <t>Daniil Misyul</t>
+  </si>
+  <si>
+    <t>Colton Sissons</t>
+  </si>
+  <si>
+    <t>Brendan Gallagher</t>
+  </si>
+  <si>
+    <t>Cam York</t>
+  </si>
+  <si>
+    <t>Brady Tkachuk</t>
+  </si>
+  <si>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
+    <t>Anders Lee</t>
+  </si>
+  <si>
+    <t>Curtis Lazar</t>
+  </si>
+  <si>
+    <t>Cole Smith</t>
+  </si>
+  <si>
+    <t>Arber Xhekaj</t>
+  </si>
+  <si>
+    <t>Bobby Brink</t>
+  </si>
+  <si>
+    <t>Artem Zub</t>
+  </si>
+  <si>
+    <t>Adam Fox</t>
+  </si>
+  <si>
+    <t>Alexander Romanov</t>
+  </si>
+  <si>
+    <t>Brett Pesce</t>
+  </si>
+  <si>
+    <t>Brady Skjei</t>
+  </si>
+  <si>
+    <t>Alexandre Carrier</t>
+  </si>
+  <si>
+    <t>Alexis Gendron</t>
+  </si>
+  <si>
+    <t>Adam Gaudette</t>
+  </si>
+  <si>
+    <t>Adam Edstrom</t>
+  </si>
+  <si>
+    <t>Adam Pelech</t>
+  </si>
+  <si>
+    <t>Brendan Dillon</t>
+  </si>
+  <si>
+    <t>Adam Wilsby</t>
+  </si>
+  <si>
+    <t>Alex Newhook</t>
+  </si>
+  <si>
+    <t>Wyatt Johnston</t>
+  </si>
+  <si>
+    <t>Zach Aston-Reese</t>
+  </si>
+  <si>
+    <t>Warren Foegele</t>
+  </si>
+  <si>
+    <t>Uvis Balinskis</t>
+  </si>
+  <si>
+    <t>William Lagesson</t>
+  </si>
+  <si>
+    <t>Tyler Seguin</t>
+  </si>
+  <si>
+    <t>Zach Werenski</t>
+  </si>
+  <si>
+    <t>Vladislav Gavrikov</t>
+  </si>
+  <si>
+    <t>Tomas Nosek</t>
+  </si>
+  <si>
+    <t>Zach Hyman</t>
+  </si>
+  <si>
+    <t>Vladamir Tarasenko</t>
+  </si>
+  <si>
+    <t>Thomas Harley</t>
+  </si>
+  <si>
+    <t>Sean Monahan</t>
+  </si>
+  <si>
+    <t>Zach Bogosian</t>
+  </si>
+  <si>
+    <t>Trevor Moore</t>
+  </si>
+  <si>
+    <t>Sam Reinhart</t>
+  </si>
+  <si>
+    <t>Viktor Arvidsson</t>
+  </si>
+  <si>
+    <t>Tyler Motte</t>
+  </si>
+  <si>
+    <t>Sam Steel</t>
+  </si>
+  <si>
+    <t>Sean Kuraly</t>
+  </si>
+  <si>
+    <t>Yakov Trenin</t>
+  </si>
+  <si>
+    <t>Tanner Jeannot</t>
+  </si>
+  <si>
+    <t>Sam Bennett</t>
+  </si>
+  <si>
+    <t>Vasily Podkolzin</t>
+  </si>
+  <si>
+    <t>Simon Edvinsson</t>
+  </si>
+  <si>
+    <t>Roope Hintz</t>
+  </si>
+  <si>
+    <t>Mikael Pyyhtia</t>
+  </si>
+  <si>
+    <t>Travis Dermott</t>
+  </si>
+  <si>
+    <t>Samuel Helenius</t>
+  </si>
+  <si>
+    <t>Rasmus Asplund</t>
+  </si>
+  <si>
+    <t>Ty Emberson</t>
+  </si>
+  <si>
+    <t>Patrick Kane</t>
+  </si>
+  <si>
+    <t>Oskar Back</t>
+  </si>
+  <si>
+    <t>Mathieu Olivier</t>
+  </si>
+  <si>
+    <t>Travis Boyd</t>
+  </si>
+  <si>
+    <t>Quentin Byfield</t>
+  </si>
+  <si>
+    <t>Patrick Giles</t>
+  </si>
+  <si>
+    <t>Troy Stecher</t>
+  </si>
+  <si>
+    <t>Nils Lundkvist</t>
+  </si>
+  <si>
+    <t>Kirill Marchenko</t>
+  </si>
+  <si>
+    <t>Ryan Hartman</t>
+  </si>
+  <si>
+    <t>Philip Danault</t>
+  </si>
+  <si>
+    <t>Niko Mikkola</t>
+  </si>
+  <si>
+    <t>Ryan Nugent-Hopkins</t>
+  </si>
+  <si>
+    <t>Moritz Seider</t>
+  </si>
+  <si>
+    <t>Miro Heiskanen</t>
+  </si>
+  <si>
+    <t>Kevin Labanc</t>
+  </si>
+  <si>
+    <t>Matt Boldy</t>
+  </si>
+  <si>
+    <t>Mikey Anderson</t>
+  </si>
+  <si>
+    <t>Nate Schmidt</t>
+  </si>
+  <si>
+    <t>Noah Philp</t>
+  </si>
+  <si>
+    <t>Michael Rasmussen</t>
+  </si>
+  <si>
+    <t>Mavrik Bourque</t>
+  </si>
+  <si>
+    <t>Kent Johnson</t>
+  </si>
+  <si>
+    <t>Mats Zuccarello</t>
+  </si>
+  <si>
+    <t>Kyle Burroughs</t>
+  </si>
+  <si>
+    <t>Matthew Tkachuk</t>
+  </si>
+  <si>
+    <t>Mattias Janmark</t>
+  </si>
+  <si>
+    <t>Marco Kasper</t>
+  </si>
+  <si>
+    <t>Matt Dumba</t>
+  </si>
+  <si>
+    <t>Justin Danforth</t>
+  </si>
+  <si>
+    <t>Marcus Johansson</t>
+  </si>
+  <si>
+    <t>Kevin Fiala</t>
+  </si>
+  <si>
+    <t>Mackie Samoskevich</t>
+  </si>
+  <si>
+    <t>Mattias Ekholm</t>
+  </si>
+  <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
+    <t>Matt Duchene</t>
+  </si>
+  <si>
+    <t>Jordan Harris</t>
+  </si>
+  <si>
+    <t>Marcus Foligno</t>
+  </si>
+  <si>
+    <t>Jordan Spence</t>
+  </si>
+  <si>
+    <t>MacKenzie Entwistle</t>
+  </si>
+  <si>
+    <t>Leon Draisaitl</t>
+  </si>
+  <si>
+    <t>Justin Holl</t>
+  </si>
+  <si>
+    <t>Matej Blumel</t>
+  </si>
+  <si>
+    <t>James van Riemsdyk</t>
+  </si>
+  <si>
+    <t>Marco Rossi</t>
+  </si>
+  <si>
+    <t>Joel Edmundson</t>
+  </si>
+  <si>
+    <t>Jonah Gadjovich</t>
+  </si>
+  <si>
+    <t>Kasperi Kapanen</t>
+  </si>
+  <si>
+    <t>Jonatan Berggren</t>
+  </si>
+  <si>
+    <t>Mason Marchment</t>
+  </si>
+  <si>
+    <t>James Malatesta</t>
+  </si>
+  <si>
+    <t>Marat Khusnutdinov</t>
+  </si>
+  <si>
+    <t>Jacob Moverare</t>
+  </si>
+  <si>
+    <t>Jesper Boqvist</t>
+  </si>
+  <si>
+    <t>Josh Brown</t>
+  </si>
+  <si>
+    <t>Joe Veleno</t>
+  </si>
+  <si>
+    <t>Logan Stankoven</t>
+  </si>
+  <si>
+    <t>Jake Christiansen</t>
+  </si>
+  <si>
+    <t>Kirill Kaprizov</t>
+  </si>
+  <si>
+    <t>Drew Doughty</t>
+  </si>
+  <si>
+    <t>Gustav Forsling</t>
+  </si>
+  <si>
+    <t>Jeff Skinner</t>
+  </si>
+  <si>
+    <t>Jeff Petry</t>
+  </si>
+  <si>
+    <t>Lian Bichsel</t>
+  </si>
+  <si>
+    <t>Jack Johnson</t>
+  </si>
+  <si>
+    <t>Jonas Brodin</t>
+  </si>
+  <si>
+    <t>Brandt Clarke</t>
+  </si>
+  <si>
+    <t>Evan Rodrigues</t>
+  </si>
+  <si>
+    <t>Evan Bouchard</t>
+  </si>
+  <si>
+    <t>J.T. Compher</t>
+  </si>
+  <si>
+    <t>Justin Hryckowian</t>
+  </si>
+  <si>
+    <t>Ivan Provorov</t>
+  </si>
+  <si>
+    <t>Jon Merrill</t>
+  </si>
+  <si>
+    <t>Arthur Kaliyev</t>
+  </si>
+  <si>
+    <t>Eetu Luostarinen</t>
+  </si>
+  <si>
+    <t>Drake Caggiula</t>
+  </si>
+  <si>
+    <t>Erik Gustafsson</t>
+  </si>
+  <si>
+    <t>Jason Robertson</t>
+  </si>
+  <si>
+    <t>Dmitri Voronkov</t>
+  </si>
+  <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
+    <t>Anze Kopitar</t>
+  </si>
+  <si>
+    <t>Dmitry Kulikov</t>
+  </si>
+  <si>
+    <t>Derek Ryan</t>
+  </si>
+  <si>
+    <t>Dylan Larkin</t>
+  </si>
+  <si>
+    <t>Jamie Benn</t>
+  </si>
+  <si>
+    <t>Denton Mateychuk</t>
+  </si>
+  <si>
+    <t>Jared Spurgeon</t>
+  </si>
+  <si>
+    <t>Andre Lee</t>
+  </si>
+  <si>
+    <t>Carter Verhaeghe</t>
+  </si>
+  <si>
+    <t>Darnell Nurse</t>
+  </si>
+  <si>
+    <t>Christian Fischer</t>
+  </si>
+  <si>
+    <t>Ilya Lyubushkin</t>
+  </si>
+  <si>
+    <t>David Jiricek</t>
+  </si>
+  <si>
+    <t>Frederick Gaudreau</t>
+  </si>
+  <si>
+    <t>Andreas Englund</t>
+  </si>
+  <si>
+    <t>Anton Lundell</t>
+  </si>
+  <si>
+    <t>Corey Perry</t>
+  </si>
+  <si>
+    <t>Ben Chiarot</t>
+  </si>
+  <si>
+    <t>Evgenii Dadonov</t>
+  </si>
+  <si>
+    <t>Devin Shore</t>
+  </si>
+  <si>
+    <t>Alex Turcotte</t>
+  </si>
+  <si>
+    <t>Aleksander Barkov</t>
+  </si>
+  <si>
+    <t>Connor McDavid</t>
+  </si>
+  <si>
+    <t>Esa Lindell</t>
+  </si>
+  <si>
+    <t>Damon Severson</t>
+  </si>
+  <si>
+    <t>Declan Chisholm</t>
+  </si>
+  <si>
+    <t>Alex Laferriere</t>
+  </si>
+  <si>
+    <t>Adam Boqvist</t>
+  </si>
+  <si>
+    <t>Connor Brown</t>
+  </si>
+  <si>
+    <t>Andrew Copp</t>
+  </si>
+  <si>
+    <t>Colin Blackwell</t>
+  </si>
+  <si>
+    <t>Cole Sillinger</t>
+  </si>
+  <si>
+    <t>Brock Faber</t>
+  </si>
+  <si>
+    <t>Akil Thomas</t>
+  </si>
+  <si>
+    <t>Aaron Ekblad</t>
+  </si>
+  <si>
+    <t>Brett Kulak</t>
+  </si>
+  <si>
+    <t>Alex DeBrincat</t>
+  </si>
+  <si>
+    <t>Brendan Smith</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Ben Jones</t>
+  </si>
+  <si>
+    <t>Adrian Kempe</t>
+  </si>
+  <si>
+    <t>A.J. Greer</t>
+  </si>
+  <si>
+    <t>Adam Henrique</t>
+  </si>
+  <si>
+    <t>Albert Johansson</t>
+  </si>
+  <si>
+    <t>Alexander Petrovic</t>
+  </si>
+  <si>
+    <t>Adam Fantilli</t>
+  </si>
+  <si>
+    <t>Zach Benson</t>
+  </si>
+  <si>
+    <t>Valeri Nichushkin</t>
+  </si>
+  <si>
+    <t>Tyler Bertuzzi</t>
+  </si>
+  <si>
+    <t>Tyson Kozak</t>
+  </si>
+  <si>
+    <t>Samuel Girard</t>
+  </si>
+  <si>
+    <t>TJ Brodie</t>
+  </si>
+  <si>
+    <t>Yegor Sharangovich</t>
+  </si>
+  <si>
+    <t>Ty Cheveldayoff</t>
+  </si>
+  <si>
+    <t>Trent Frederic</t>
+  </si>
+  <si>
+    <t>Sam Malinski</t>
+  </si>
+  <si>
+    <t>Teuvo Teravainen</t>
+  </si>
+  <si>
+    <t>Walker Duehr</t>
+  </si>
+  <si>
+    <t>Tage Thompson</t>
+  </si>
+  <si>
+    <t>Pavel Zacha</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
+    <t>Ross Colton</t>
+  </si>
+  <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>William Carrier</t>
+  </si>
+  <si>
+    <t>Tyson Barrie</t>
+  </si>
+  <si>
+    <t>Sam Lafferty</t>
+  </si>
+  <si>
+    <t>Parker Wotherspoon</t>
+  </si>
+  <si>
+    <t>Sam Colangelo</t>
+  </si>
+  <si>
+    <t>Parker Kelly</t>
+  </si>
+  <si>
+    <t>Seth Jones</t>
+  </si>
+  <si>
+    <t>Tyson Jost</t>
+  </si>
+  <si>
+    <t>Samuel Honzek</t>
+  </si>
+  <si>
+    <t>Ryan McLeod</t>
+  </si>
+  <si>
+    <t>Ryan Strome</t>
+  </si>
+  <si>
+    <t>Oliver Kylington</t>
+  </si>
+  <si>
+    <t>Ryan Donato</t>
+  </si>
+  <si>
+    <t>Ty Smith</t>
+  </si>
+  <si>
+    <t>Ryan Lomberg</t>
+  </si>
+  <si>
+    <t>Rasmus Dahlin</t>
+  </si>
+  <si>
+    <t>Nikita Zadorov</t>
+  </si>
+  <si>
+    <t>Ryan Stone</t>
+  </si>
+  <si>
+    <t>Nathan MacKinnon</t>
+  </si>
+  <si>
+    <t>Philipp Kurashev</t>
+  </si>
+  <si>
+    <t>Shayne Gostisbehere</t>
+  </si>
+  <si>
+    <t>Rasmus Andersson</t>
+  </si>
+  <si>
+    <t>Peyton Krebs</t>
+  </si>
+  <si>
+    <t>Morgan Geekie</t>
+  </si>
+  <si>
+    <t>Ross Johnston</t>
+  </si>
+  <si>
+    <t>Mikko Rantanen</t>
+  </si>
+  <si>
+    <t>Pat Maroon</t>
+  </si>
+  <si>
+    <t>Seth Jarvis</t>
+  </si>
+  <si>
+    <t>Nazem Kadri</t>
+  </si>
+  <si>
+    <t>Owen Power</t>
+  </si>
+  <si>
+    <t>Mason Lohrei</t>
+  </si>
+  <si>
+    <t>Robby Fabbri</t>
+  </si>
+  <si>
+    <t>Matt Stienburg</t>
+  </si>
+  <si>
+    <t>Nolan Allan</t>
+  </si>
+  <si>
+    <t>Sebastian Aho</t>
+  </si>
+  <si>
+    <t>Mikael Backlund</t>
+  </si>
+  <si>
+    <t>Nicolas Aube-Kubel</t>
+  </si>
+  <si>
+    <t>Mark Kastelic</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Logan O'Connor</t>
+  </si>
+  <si>
+    <t>Nick Foligno</t>
+  </si>
+  <si>
+    <t>Sean Walker</t>
+  </si>
+  <si>
+    <t>Matt Coronato</t>
+  </si>
+  <si>
+    <t>Mattias Samuelsson</t>
+  </si>
+  <si>
+    <t>Marc McLaughlin</t>
+  </si>
+  <si>
+    <t>Pavel Mintyukov</t>
+  </si>
+  <si>
+    <t>Keaton Middleton</t>
+  </si>
+  <si>
+    <t>Lukas Reichel</t>
+  </si>
+  <si>
+    <t>Martin Necas</t>
+  </si>
+  <si>
+    <t>Martin Pospisil</t>
+  </si>
+  <si>
+    <t>Lukas Rousek</t>
+  </si>
+  <si>
+    <t>Justin Brazeau</t>
+  </si>
+  <si>
+    <t>Olen Zellweger</t>
+  </si>
+  <si>
+    <t>Juuso Parssinen</t>
+  </si>
+  <si>
+    <t>Louis Crevier</t>
+  </si>
+  <si>
+    <t>Jordan Staal</t>
+  </si>
+  <si>
+    <t>MacKenzie Weegar</t>
+  </si>
+  <si>
+    <t>Kale Clague</t>
+  </si>
+  <si>
+    <t>Jordan Oesterle</t>
+  </si>
+  <si>
+    <t>Mason McTavish</t>
+  </si>
+  <si>
+    <t>Josh Manson</t>
+  </si>
+  <si>
+    <t>Kevin Korchinski</t>
+  </si>
+  <si>
+    <t>Jordan Martinook</t>
+  </si>
+  <si>
+    <t>Kevin Rooney</t>
+  </si>
+  <si>
+    <t>JJ Peterka</t>
+  </si>
+  <si>
+    <t>Johnny Beecher</t>
+  </si>
+  <si>
+    <t>Leo Carlsson</t>
+  </si>
+  <si>
+    <t>Jonathan Drouin</t>
+  </si>
+  <si>
+    <t>Joey Anderson</t>
+  </si>
+  <si>
+    <t>Jesperi Kotkaniemi</t>
+  </si>
+  <si>
+    <t>Kevin Bahl</t>
+  </si>
+  <si>
+    <t>Jiri Kulich</t>
+  </si>
+  <si>
+    <t>Georgii Merkulov</t>
+  </si>
+  <si>
+    <t>Jansen Harkins</t>
+  </si>
+  <si>
+    <t>John Ludvig</t>
+  </si>
+  <si>
+    <t>Jason Dickinson</t>
+  </si>
+  <si>
+    <t>Jalen Chatfield</t>
+  </si>
+  <si>
+    <t>Jonathan Huberdeau</t>
+  </si>
+  <si>
+    <t>Jason Zucker</t>
+  </si>
+  <si>
+    <t>Fabian Lysell</t>
+  </si>
+  <si>
+    <t>Jacob Trouba</t>
+  </si>
+  <si>
+    <t>Joel Kiviranta</t>
+  </si>
+  <si>
+    <t>Isaak Phillips</t>
+  </si>
+  <si>
+    <t>Jackson Blake</t>
+  </si>
+  <si>
+    <t>Joel Hanley</t>
+  </si>
+  <si>
+    <t>Jacob Bryson</t>
+  </si>
+  <si>
+    <t>Elias Lindholm</t>
+  </si>
+  <si>
+    <t>Jackson LaCombe</t>
+  </si>
+  <si>
+    <t>Jere Innala</t>
+  </si>
+  <si>
+    <t>Ilya Mikheyev</t>
+  </si>
+  <si>
+    <t>Jack Roslovic</t>
+  </si>
+  <si>
+    <t>Jakob Pelletier</t>
+  </si>
+  <si>
+    <t>Jack Quinn</t>
+  </si>
+  <si>
+    <t>David Pastrnak</t>
+  </si>
+  <si>
+    <t>Isac Lundestrom</t>
+  </si>
+  <si>
+    <t>Givani Smith</t>
+  </si>
+  <si>
+    <t>Frank Nazar</t>
+  </si>
+  <si>
+    <t>Jack Drury</t>
+  </si>
+  <si>
+    <t>Jake Bean</t>
+  </si>
+  <si>
+    <t>Henri Jokiharju</t>
+  </si>
+  <si>
+    <t>Cole Koepke</t>
+  </si>
+  <si>
+    <t>Frank Vatrano</t>
+  </si>
+  <si>
+    <t>Devon Toews</t>
+  </si>
+  <si>
+    <t>Craig Smith</t>
+  </si>
+  <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>Daniil Miromanov</t>
+  </si>
+  <si>
+    <t>Dylan Cozens</t>
+  </si>
+  <si>
+    <t>Charlie McAvoy</t>
+  </si>
+  <si>
+    <t>Drew Helleson</t>
+  </si>
+  <si>
+    <t>Casey Mittelstadt</t>
+  </si>
+  <si>
+    <t>Connor Murphy</t>
+  </si>
+  <si>
+    <t>Eric Robinson</t>
+  </si>
+  <si>
+    <t>Connor Zary</t>
+  </si>
+  <si>
+    <t>Dennis Gilbert</t>
+  </si>
+  <si>
+    <t>Charlie Coyle</t>
+  </si>
+  <si>
+    <t>Cutter Gauthier</t>
+  </si>
+  <si>
+    <t>Calvin de Haan</t>
+  </si>
+  <si>
+    <t>Connor Bedard</t>
+  </si>
+  <si>
+    <t>Dmitry Orlov</t>
+  </si>
+  <si>
+    <t>Brayden Pachal</t>
+  </si>
+  <si>
+    <t>Connor Clifton</t>
+  </si>
+  <si>
+    <t>Brandon Carlo</t>
+  </si>
+  <si>
+    <t>Brock McGinn</t>
+  </si>
+  <si>
+    <t>Calum Ritchie</t>
+  </si>
+  <si>
+    <t>Andreas Athanasiou</t>
+  </si>
+  <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
+    <t>Blake Coleman</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
+  </si>
+  <si>
+    <t>Brad Marchand</t>
+  </si>
+  <si>
+    <t>Brian Dumoulin</t>
+  </si>
+  <si>
+    <t>Cale Makar</t>
+  </si>
+  <si>
+    <t>Alex Vlasic</t>
+  </si>
+  <si>
+    <t>Brendan Lemieux</t>
+  </si>
+  <si>
+    <t>Anthony Mantha</t>
+  </si>
+  <si>
+    <t>Beck Malenstyn</t>
+  </si>
+  <si>
+    <t>Andrew Peeke</t>
+  </si>
+  <si>
+    <t>Brett Leason</t>
+  </si>
+  <si>
+    <t>Artturi Lehkonen</t>
+  </si>
+  <si>
+    <t>Alec Martinez</t>
+  </si>
+  <si>
+    <t>Andrei Svechnikov</t>
+  </si>
+  <si>
+    <t>Andrei Kuzmenko</t>
+  </si>
+  <si>
+    <t>Alex Tuch</t>
+  </si>
+  <si>
+    <t>Alec Regula</t>
+  </si>
+  <si>
+    <t>Alex Killorn</t>
   </si>
 </sst>
 </file>
@@ -891,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D177AD-3B5D-4C42-BF73-A9BA1128D737}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1636,10 +4092,5137 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8B94FB-F70A-49D1-8954-61B4EF253E44}">
+  <dimension ref="A1:N138"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="23.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="20"/>
+      <c r="K56" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="20"/>
+      <c r="M56" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="20"/>
+    </row>
+    <row r="57" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="20"/>
+      <c r="E84" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="20"/>
+      <c r="G84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="20"/>
+      <c r="K84" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L84" s="20"/>
+      <c r="M84" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N84" s="20"/>
+    </row>
+    <row r="85" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="20"/>
+      <c r="E112" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" s="20"/>
+      <c r="G112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H112" s="20"/>
+    </row>
+    <row r="113" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAF5206-6C7C-473B-8F0B-07B9A3759B8D}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -1717,4 +9300,903 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172CA015-7914-40C7-A323-FE1A5E119CBE}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="22.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2024_2025/BoxScores/January.xlsx
+++ b/2024_2025/BoxScores/January.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\BoxScores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\BoxScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45AD84E-C4C2-49E4-AC3B-6A2F9DA78448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Teams" sheetId="2" r:id="rId2"/>
-    <sheet name="Scores Template" sheetId="3" r:id="rId3"/>
-    <sheet name="Offense (1-1-25)" sheetId="5" r:id="rId4"/>
-    <sheet name="Rosters (Offense - 24)" sheetId="8" r:id="rId5"/>
+    <sheet name="Scores (1-1-25)" sheetId="3" r:id="rId3"/>
+    <sheet name="Scores (1-2-25)" sheetId="11" r:id="rId4"/>
+    <sheet name="Offense (1-1-25)" sheetId="5" r:id="rId5"/>
     <sheet name="Goalies (1-1-25)" sheetId="4" r:id="rId6"/>
-    <sheet name="Rosters (Goalies - 3)" sheetId="6" r:id="rId7"/>
+    <sheet name="Offense (1-2-25)" sheetId="10" r:id="rId7"/>
+    <sheet name="Rosters (Offense - 24)" sheetId="8" r:id="rId8"/>
+    <sheet name="Goalies (1-2-25)" sheetId="9" r:id="rId9"/>
+    <sheet name="Rosters (Goalies - 3)" sheetId="6" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="897">
   <si>
     <t>Winnipeg Jets</t>
   </si>
@@ -2727,13 +2729,19 @@
   </si>
   <si>
     <t>Alex Killorn</t>
+  </si>
+  <si>
+    <t>January 2nd 2025</t>
+  </si>
+  <si>
+    <t>Scores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2772,6 +2780,14 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2942,7 +2958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2951,9 +2967,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2998,6 +3011,9 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3008,6 +3024,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3344,23 +3369,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D177AD-3B5D-4C42-BF73-A9BA1128D737}">
-  <dimension ref="A1:AA32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="26" width="9.125" style="1"/>
+    <col min="27" max="27" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>75</v>
       </c>
@@ -3369,248 +3394,1280 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+    <row r="2" spans="1:27" ht="15.75" thickTop="1">
+      <c r="A2" s="17">
         <v>45658</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="24" t="s">
+        <v>896</v>
+      </c>
       <c r="AA2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:27" ht="15">
+      <c r="A3" s="15">
+        <v>45659</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>896</v>
+      </c>
       <c r="AA3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:27" ht="15">
+      <c r="A4" s="15">
+        <v>45660</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:27" ht="15">
+      <c r="A5" s="15">
+        <v>45661</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:27" ht="15">
+      <c r="A6" s="15">
+        <v>45662</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:27" ht="15">
+      <c r="A7" s="15">
+        <v>45663</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:27" ht="15">
+      <c r="A8" s="15">
+        <v>45664</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:27" ht="15">
+      <c r="A9" s="15">
+        <v>45665</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:27" ht="15">
+      <c r="A10" s="15">
+        <v>45666</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:27" ht="15">
+      <c r="A11" s="15">
+        <v>45667</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:27" ht="15">
+      <c r="A12" s="15">
+        <v>45668</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="3"/>
+    <row r="13" spans="1:27" ht="15">
+      <c r="A13" s="15">
+        <v>45669</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:27" ht="15">
+      <c r="A14" s="15">
+        <v>45670</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="3"/>
+    <row r="15" spans="1:27" ht="15">
+      <c r="A15" s="15">
+        <v>45671</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:27" ht="15">
+      <c r="A16" s="15">
+        <v>45672</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:27" ht="15">
+      <c r="A17" s="15">
+        <v>45673</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="3"/>
+    <row r="18" spans="1:27" ht="15">
+      <c r="A18" s="15">
+        <v>45674</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="3"/>
+    <row r="19" spans="1:27" ht="15">
+      <c r="A19" s="15">
+        <v>45675</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="3"/>
+    <row r="20" spans="1:27" ht="15">
+      <c r="A20" s="15">
+        <v>45676</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:27" ht="15">
+      <c r="A21" s="15">
+        <v>45677</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="3"/>
+    <row r="22" spans="1:27" ht="15">
+      <c r="A22" s="15">
+        <v>45678</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:27" ht="15">
+      <c r="A23" s="15">
+        <v>45679</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="3"/>
+    <row r="24" spans="1:27" ht="15">
+      <c r="A24" s="15">
+        <v>45680</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA24" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="3"/>
+    <row r="25" spans="1:27" ht="15">
+      <c r="A25" s="15">
+        <v>45681</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="3"/>
+    <row r="26" spans="1:27" ht="15">
+      <c r="A26" s="15">
+        <v>45682</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="3"/>
+    <row r="27" spans="1:27" ht="15">
+      <c r="A27" s="15">
+        <v>45683</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="3"/>
+    <row r="28" spans="1:27" ht="15">
+      <c r="A28" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA28" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="2"/>
+    <row r="29" spans="1:27" ht="15">
+      <c r="A29" s="15">
+        <v>45685</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15">
+      <c r="A30" s="15">
+        <v>45686</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA30" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15">
+      <c r="A31" s="15">
+        <v>45687</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="AA31" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A32" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>896</v>
+      </c>
       <c r="AA32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="33" ht="15" thickTop="1"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AA1:AA24">
+  <sortState ref="AA1:AA24">
     <sortCondition ref="AA1:AA32"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Scores (1-1-25)'!A1" display="Scores"/>
+    <hyperlink ref="B3" location="'Scores (1-2-25)'!A1" display="Scores"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1"/>
+    <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1"/>
+    <col min="9" max="9" width="22.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1"/>
+    <col min="13" max="13" width="20.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1"/>
+    <col min="15" max="15" width="20.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickTop="1">
+      <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1"/>
+    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickTop="1">
+      <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1"/>
+    <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickTop="1">
+      <c r="A15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="K17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1"/>
+    <row r="19" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickTop="1">
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1"/>
+    <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickTop="1">
+      <c r="A27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0148CC85-F753-4FD2-B9F3-A5962DDFE417}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
@@ -3620,7 +4677,7 @@
       </c>
       <c r="D1" s="21"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -3634,7 +4691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3648,7 +4705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3662,7 +4719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3676,7 +4733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3690,7 +4747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -3704,7 +4761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -3718,7 +4775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3732,7 +4789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -3746,66 +4803,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="K45" s="5"/>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="K46" s="5"/>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="49" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="K50" s="5"/>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="54" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J54" s="5"/>
-      <c r="O54" s="5"/>
-    </row>
-    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="O55" s="5"/>
-    </row>
-    <row r="56" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="O56" s="5"/>
+    <row r="40" spans="10:15">
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="10:15">
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="10:15">
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="10:15">
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="10:15">
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="10:15">
+      <c r="K45" s="4"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="10:15">
+      <c r="K46" s="4"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="10:15">
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="49" spans="10:15">
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="10:15">
+      <c r="K50" s="4"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="10:15">
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="10:15">
+      <c r="J52" s="4"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="10:15">
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="10:15">
+      <c r="J54" s="4"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="10:15">
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="10:15">
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="O56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3817,150 +4874,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82695FB2-CA88-4767-9DA7-832F5FE9DAB0}">
-  <dimension ref="A1:AA19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="21.75" thickTop="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickTop="1">
+      <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="5" spans="1:27" ht="15">
+      <c r="A5" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3969,20 +4950,199 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{BAA4E157-7AD9-4D58-9557-33B5B6680F3F}"/>
-    <hyperlink ref="A18" location="'Offense (10-10-23)'!A1" display="Offense" xr:uid="{92E877DE-4515-48D6-9B56-CC914E41359A}"/>
-    <hyperlink ref="A19" location="'Goalies (10-10-23)'!A1" display="Goalies" xr:uid="{3439A79D-EC1A-4C2D-9169-5FCDEF87C1B7}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A4" location="'Offense (1-1-25)'!A1" display="Offense"/>
+    <hyperlink ref="A5" location="'Goalies (1-1-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3 C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="27.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="21.75" thickTop="1" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15" thickTop="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A18" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A18" location="'Offense (1-2-25)'!A1" display="Offense"/>
+    <hyperlink ref="A19" location="'Goalies (1-2-25)'!A1" display="Goalies"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
@@ -3994,27 +5154,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9F52C-4A3A-44E0-BBDC-950685570BE6}">
-  <dimension ref="A1:U1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="15"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="9.125" style="1"/>
+    <col min="16" max="18" width="9.125" style="14"/>
+    <col min="19" max="20" width="9.125" style="1"/>
+    <col min="21" max="21" width="17.125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -4060,13 +5218,13 @@
       <c r="O1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -4075,52 +5233,2638 @@
       <c r="T1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>26</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>18</v>
+      </c>
+      <c r="P3" s="14">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>17</v>
+      </c>
+      <c r="P4" s="14">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>8</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="S6" s="1">
+        <v>7</v>
+      </c>
+      <c r="T6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>15</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>12</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>27</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0.20347222222222219</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0.82708333333333339</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>21</v>
+      </c>
+      <c r="P10" s="14">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>18</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>27</v>
+      </c>
+      <c r="P13" s="14">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>22</v>
+      </c>
+      <c r="P14" s="14">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="S14" s="1">
+        <v>6</v>
+      </c>
+      <c r="T14" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>22</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0.15625</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>7</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>15</v>
+      </c>
+      <c r="P17" s="14">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>27</v>
+      </c>
+      <c r="P18" s="14">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>23</v>
+      </c>
+      <c r="P19" s="14">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>15</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>22</v>
+      </c>
+      <c r="P21" s="14">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>13</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="S22" s="1">
+        <v>7</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>19</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>19</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>18</v>
+      </c>
+      <c r="P25" s="14">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="S25" s="1">
+        <v>3</v>
+      </c>
+      <c r="T25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>21</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="S26" s="1">
+        <v>4</v>
+      </c>
+      <c r="T26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>21</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>17</v>
+      </c>
+      <c r="P28" s="14">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>20</v>
+      </c>
+      <c r="P29" s="14">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="R29" s="14">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>21</v>
+      </c>
+      <c r="P30" s="14">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>15</v>
+      </c>
+      <c r="P31" s="14">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>22</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="R32" s="14">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="S32" s="1">
+        <v>18</v>
+      </c>
+      <c r="T32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>16</v>
+      </c>
+      <c r="P33" s="14">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>0</v>
+      </c>
+      <c r="R33" s="14">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" s="1">
+        <v>8</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>16</v>
+      </c>
+      <c r="P34" s="14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>0</v>
+      </c>
+      <c r="R34" s="14">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>20</v>
+      </c>
+      <c r="P35" s="14">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="R35" s="14">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>19</v>
+      </c>
+      <c r="P36" s="14">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="R36" s="14">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>13</v>
+      </c>
+      <c r="P37" s="14">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>0</v>
+      </c>
+      <c r="R37" s="14">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="16:18">
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="16:18">
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="16:18">
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="16:18">
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="16:18">
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="16:18">
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="16:18">
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="16:18">
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="16:18">
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="16:18">
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:T37">
-    <sortCondition ref="A20:A37"/>
+  <sortState ref="A2:T37">
+    <sortCondition ref="C2:C37"/>
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (10-4-24)'!A1" display="HOME" xr:uid="{E6243207-8E81-4D22-A737-3DA59F72993E}"/>
+    <hyperlink ref="U1" location="'Scores (1-1-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8B94FB-F70A-49D1-8954-61B4EF253E44}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="26.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2.4979166666666668</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>2.3826388888888888</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="K7" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (1-1-25)'!A1" display="HOME"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.75" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="18"/>
+    <col min="3" max="3" width="22" style="18" customWidth="1"/>
+    <col min="4" max="15" width="9.125" style="18"/>
+    <col min="16" max="18" width="9.125" style="14"/>
+    <col min="19" max="21" width="9.125" style="18"/>
+    <col min="22" max="22" width="17.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15">
+      <c r="A1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (1-2-25)'!A1" display="HOME"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="23.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="23.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1"/>
+    <col min="5" max="5" width="24.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1"/>
+    <col min="7" max="7" width="24.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1"/>
+    <col min="9" max="9" width="22.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="23.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1"/>
+    <col min="13" max="13" width="23.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
@@ -4150,51 +7894,51 @@
       </c>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" thickTop="1">
       <c r="A3" s="1" t="s">
         <v>894</v>
       </c>
@@ -4238,7 +7982,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>887</v>
       </c>
@@ -4282,7 +8026,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>880</v>
       </c>
@@ -4326,7 +8070,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>873</v>
       </c>
@@ -4370,7 +8114,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>866</v>
       </c>
@@ -4414,7 +8158,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>859</v>
       </c>
@@ -4458,7 +8202,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>852</v>
       </c>
@@ -4502,7 +8246,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>845</v>
       </c>
@@ -4546,7 +8290,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>838</v>
       </c>
@@ -4590,7 +8334,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>831</v>
       </c>
@@ -4634,7 +8378,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>824</v>
       </c>
@@ -4678,7 +8422,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>817</v>
       </c>
@@ -4722,7 +8466,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>810</v>
       </c>
@@ -4766,7 +8510,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>803</v>
       </c>
@@ -4810,7 +8554,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>796</v>
       </c>
@@ -4854,7 +8598,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>789</v>
       </c>
@@ -4898,7 +8642,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>782</v>
       </c>
@@ -4942,7 +8686,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>775</v>
       </c>
@@ -4986,7 +8730,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>768</v>
       </c>
@@ -5030,7 +8774,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>761</v>
       </c>
@@ -5074,7 +8818,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>755</v>
       </c>
@@ -5118,7 +8862,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>748</v>
       </c>
@@ -5156,7 +8900,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="C25" s="1" t="s">
         <v>742</v>
       </c>
@@ -5188,7 +8932,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="E26" s="1" t="s">
         <v>737</v>
       </c>
@@ -5208,7 +8952,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="E27" s="1" t="s">
         <v>734</v>
       </c>
@@ -5216,8 +8960,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15" thickBot="1"/>
+    <row r="29" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="19" t="s">
         <v>23</v>
       </c>
@@ -5247,51 +8991,51 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" thickTop="1">
       <c r="A31" s="1" t="s">
         <v>733</v>
       </c>
@@ -5335,7 +9079,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>726</v>
       </c>
@@ -5379,7 +9123,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>719</v>
       </c>
@@ -5423,7 +9167,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>712</v>
       </c>
@@ -5467,7 +9211,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>547</v>
       </c>
@@ -5511,7 +9255,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
         <v>700</v>
       </c>
@@ -5555,7 +9299,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
         <v>693</v>
       </c>
@@ -5599,7 +9343,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>686</v>
       </c>
@@ -5643,7 +9387,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
         <v>679</v>
       </c>
@@ -5687,7 +9431,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
         <v>672</v>
       </c>
@@ -5731,7 +9475,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
         <v>665</v>
       </c>
@@ -5775,7 +9519,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
         <v>658</v>
       </c>
@@ -5819,7 +9563,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
         <v>651</v>
       </c>
@@ -5863,7 +9607,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
         <v>644</v>
       </c>
@@ -5907,7 +9651,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
         <v>637</v>
       </c>
@@ -5951,7 +9695,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
         <v>630</v>
       </c>
@@ -5995,7 +9739,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
         <v>623</v>
       </c>
@@ -6039,7 +9783,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
         <v>616</v>
       </c>
@@ -6083,7 +9827,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
         <v>610</v>
       </c>
@@ -6127,7 +9871,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
         <v>603</v>
       </c>
@@ -6171,7 +9915,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
         <v>596</v>
       </c>
@@ -6215,7 +9959,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
         <v>589</v>
       </c>
@@ -6253,7 +9997,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
         <v>583</v>
       </c>
@@ -6285,7 +10029,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
         <v>578</v>
       </c>
@@ -6299,8 +10043,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15" thickBot="1"/>
+    <row r="56" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="19" t="s">
         <v>16</v>
       </c>
@@ -6330,51 +10074,51 @@
       </c>
       <c r="N56" s="20"/>
     </row>
-    <row r="57" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A57" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K57" s="13" t="s">
+      <c r="K57" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L57" s="13" t="s">
+      <c r="L57" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M57" s="13" t="s">
+      <c r="M57" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N57" s="13" t="s">
+      <c r="N57" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15" thickTop="1">
       <c r="A58" s="1" t="s">
         <v>576</v>
       </c>
@@ -6418,7 +10162,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
         <v>569</v>
       </c>
@@ -6462,7 +10206,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="1" t="s">
         <v>562</v>
       </c>
@@ -6506,7 +10250,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
         <v>555</v>
       </c>
@@ -6550,7 +10294,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
         <v>548</v>
       </c>
@@ -6594,7 +10338,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="1" t="s">
         <v>541</v>
       </c>
@@ -6638,7 +10382,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="1" t="s">
         <v>534</v>
       </c>
@@ -6682,7 +10426,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="1" t="s">
         <v>527</v>
       </c>
@@ -6726,7 +10470,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
         <v>520</v>
       </c>
@@ -6770,7 +10514,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="1" t="s">
         <v>513</v>
       </c>
@@ -6814,7 +10558,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" s="1" t="s">
         <v>506</v>
       </c>
@@ -6858,7 +10602,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" s="1" t="s">
         <v>499</v>
       </c>
@@ -6902,7 +10646,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
         <v>492</v>
       </c>
@@ -6946,7 +10690,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" s="1" t="s">
         <v>485</v>
       </c>
@@ -6990,7 +10734,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" s="1" t="s">
         <v>478</v>
       </c>
@@ -7034,7 +10778,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" s="1" t="s">
         <v>471</v>
       </c>
@@ -7078,7 +10822,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" s="1" t="s">
         <v>464</v>
       </c>
@@ -7122,7 +10866,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="1" t="s">
         <v>458</v>
       </c>
@@ -7166,7 +10910,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" s="1" t="s">
         <v>451</v>
       </c>
@@ -7210,7 +10954,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
         <v>444</v>
       </c>
@@ -7254,7 +10998,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" s="1" t="s">
         <v>437</v>
       </c>
@@ -7298,7 +11042,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" s="1" t="s">
         <v>430</v>
       </c>
@@ -7342,7 +11086,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
         <v>423</v>
       </c>
@@ -7380,7 +11124,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>417</v>
       </c>
@@ -7406,8 +11150,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="15" thickBot="1"/>
+    <row r="84" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A84" s="19" t="s">
         <v>9</v>
       </c>
@@ -7437,51 +11181,51 @@
       </c>
       <c r="N84" s="20"/>
     </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+    <row r="85" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A85" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="G85" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H85" s="13" t="s">
+      <c r="H85" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I85" s="13" t="s">
+      <c r="I85" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K85" s="13" t="s">
+      <c r="K85" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L85" s="13" t="s">
+      <c r="L85" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M85" s="13" t="s">
+      <c r="M85" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N85" s="13" t="s">
+      <c r="N85" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="15" thickTop="1">
       <c r="A86" s="1" t="s">
         <v>413</v>
       </c>
@@ -7525,7 +11269,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>406</v>
       </c>
@@ -7569,7 +11313,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>399</v>
       </c>
@@ -7613,7 +11357,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>392</v>
       </c>
@@ -7657,7 +11401,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>385</v>
       </c>
@@ -7701,7 +11445,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>378</v>
       </c>
@@ -7745,7 +11489,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>371</v>
       </c>
@@ -7789,7 +11533,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>365</v>
       </c>
@@ -7833,7 +11577,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>358</v>
       </c>
@@ -7877,7 +11621,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>200</v>
       </c>
@@ -7921,7 +11665,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>345</v>
       </c>
@@ -7965,7 +11709,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>338</v>
       </c>
@@ -8009,7 +11753,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>331</v>
       </c>
@@ -8053,7 +11797,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
         <v>324</v>
       </c>
@@ -8097,7 +11841,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
         <v>317</v>
       </c>
@@ -8141,7 +11885,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
         <v>310</v>
       </c>
@@ -8185,7 +11929,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
         <v>303</v>
       </c>
@@ -8229,7 +11973,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
         <v>296</v>
       </c>
@@ -8273,7 +12017,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
         <v>289</v>
       </c>
@@ -8317,7 +12061,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>282</v>
       </c>
@@ -8361,7 +12105,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
         <v>275</v>
       </c>
@@ -8405,7 +12149,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
         <v>268</v>
       </c>
@@ -8449,7 +12193,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="C108" s="1" t="s">
         <v>262</v>
       </c>
@@ -8481,7 +12225,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="C109" s="1" t="s">
         <v>257</v>
       </c>
@@ -8501,8 +12245,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="15" thickBot="1"/>
+    <row r="112" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A112" s="19" t="s">
         <v>3</v>
       </c>
@@ -8520,33 +12264,33 @@
       </c>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="13" t="s">
+    <row r="113" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A113" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="D113" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E113" s="13" t="s">
+      <c r="E113" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G113" s="13" t="s">
+      <c r="G113" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H113" s="13" t="s">
+      <c r="H113" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15" thickTop="1">
       <c r="A114" s="1" t="s">
         <v>254</v>
       </c>
@@ -8572,7 +12316,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
         <v>250</v>
       </c>
@@ -8598,7 +12342,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
         <v>246</v>
       </c>
@@ -8624,7 +12368,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
         <v>242</v>
       </c>
@@ -8650,7 +12394,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
         <v>238</v>
       </c>
@@ -8676,7 +12420,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
         <v>234</v>
       </c>
@@ -8702,7 +12446,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
         <v>230</v>
       </c>
@@ -8728,7 +12472,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
         <v>226</v>
       </c>
@@ -8754,7 +12498,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
         <v>222</v>
       </c>
@@ -8780,7 +12524,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
         <v>218</v>
       </c>
@@ -8806,7 +12550,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
         <v>214</v>
       </c>
@@ -8832,7 +12576,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
         <v>210</v>
       </c>
@@ -8858,7 +12602,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
         <v>206</v>
       </c>
@@ -8884,7 +12628,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
         <v>202</v>
       </c>
@@ -8910,7 +12654,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
         <v>198</v>
       </c>
@@ -8936,7 +12680,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
         <v>194</v>
       </c>
@@ -8962,7 +12706,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
         <v>190</v>
       </c>
@@ -8988,7 +12732,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
         <v>186</v>
       </c>
@@ -9014,7 +12758,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
         <v>182</v>
       </c>
@@ -9040,7 +12784,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
         <v>178</v>
       </c>
@@ -9066,7 +12810,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
         <v>174</v>
       </c>
@@ -9092,7 +12836,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
         <v>169</v>
       </c>
@@ -9118,7 +12862,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
         <v>165</v>
       </c>
@@ -9144,7 +12888,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
         <v>160</v>
       </c>
@@ -9164,7 +12908,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
         <v>156</v>
       </c>
@@ -9180,6 +12924,28 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="K84:L84"/>
@@ -9190,1013 +12956,92 @@
     <mergeCell ref="M84:N84"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAF5206-6C7C-473B-8F0B-07B9A3759B8D}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="18"/>
+    <col min="3" max="3" width="22" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15">
+      <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K7" s="14"/>
+    <row r="2" spans="1:13">
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="K7" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (10-4-24)'!A1" display="HOME" xr:uid="{C1C3C6D7-8A72-40DC-82A3-120186E367AE}"/>
+    <hyperlink ref="M1" location="'Scores (1-2-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172CA015-7914-40C7-A323-FE1A5E119CBE}">
-  <dimension ref="A1:N29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="22.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="20.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>